--- a/item/es3.xlsx
+++ b/item/es3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="501">
   <si>
     <t>Permitir</t>
   </si>
@@ -777,6 +777,756 @@
   </si>
   <si>
     <t>Spanish</t>
+  </si>
+  <si>
+    <t>To allow</t>
+  </si>
+  <si>
+    <t>To answer</t>
+  </si>
+  <si>
+    <t>To argue</t>
+  </si>
+  <si>
+    <t>To arrive</t>
+  </si>
+  <si>
+    <t>To ask</t>
+  </si>
+  <si>
+    <t>To be (1)</t>
+  </si>
+  <si>
+    <t>To be (2)</t>
+  </si>
+  <si>
+    <t>To be able to, can</t>
+  </si>
+  <si>
+    <t>To be born</t>
+  </si>
+  <si>
+    <t>To begin, to start (more informal)</t>
+  </si>
+  <si>
+    <t>To believe</t>
+  </si>
+  <si>
+    <t>To bring</t>
+  </si>
+  <si>
+    <t>To buy</t>
+  </si>
+  <si>
+    <t>To call</t>
+  </si>
+  <si>
+    <t>To change</t>
+  </si>
+  <si>
+    <t>To climb, to go up</t>
+  </si>
+  <si>
+    <t>To close</t>
+  </si>
+  <si>
+    <t>To come</t>
+  </si>
+  <si>
+    <t>To count, to tell</t>
+  </si>
+  <si>
+    <t>To dance</t>
+  </si>
+  <si>
+    <t>To decide</t>
+  </si>
+  <si>
+    <t>To die</t>
+  </si>
+  <si>
+    <t>To do, to make</t>
+  </si>
+  <si>
+    <t>To drink</t>
+  </si>
+  <si>
+    <t>To drive</t>
+  </si>
+  <si>
+    <t>To eat</t>
+  </si>
+  <si>
+    <t>To enter</t>
+  </si>
+  <si>
+    <t>To exist</t>
+  </si>
+  <si>
+    <t>To feel</t>
+  </si>
+  <si>
+    <t>To find</t>
+  </si>
+  <si>
+    <t>To finish</t>
+  </si>
+  <si>
+    <t>To follow</t>
+  </si>
+  <si>
+    <t>To forget</t>
+  </si>
+  <si>
+    <t>To get dressed</t>
+  </si>
+  <si>
+    <t>To get, to succeed</t>
+  </si>
+  <si>
+    <t>To give</t>
+  </si>
+  <si>
+    <t>To go</t>
+  </si>
+  <si>
+    <t>To have</t>
+  </si>
+  <si>
+    <t>To have (to)</t>
+  </si>
+  <si>
+    <t>To hear</t>
+  </si>
+  <si>
+    <t>To help</t>
+  </si>
+  <si>
+    <t>To hurt</t>
+  </si>
+  <si>
+    <t>To interest</t>
+  </si>
+  <si>
+    <t>To know (+ sth)</t>
+  </si>
+  <si>
+    <t>To know, to meet (+ sb)</t>
+  </si>
+  <si>
+    <t>To learn</t>
+  </si>
+  <si>
+    <t>To split, to cut, to depart</t>
+  </si>
+  <si>
+    <t>To leave, to go out</t>
+  </si>
+  <si>
+    <t>To get up, to lift, to raise</t>
+  </si>
+  <si>
+    <t>To like</t>
+  </si>
+  <si>
+    <t>To listen</t>
+  </si>
+  <si>
+    <t>To live</t>
+  </si>
+  <si>
+    <t>To look at</t>
+  </si>
+  <si>
+    <t>To look for, to search</t>
+  </si>
+  <si>
+    <t>To lose</t>
+  </si>
+  <si>
+    <t>To love (+sth)</t>
+  </si>
+  <si>
+    <t>To need</t>
+  </si>
+  <si>
+    <t>To open</t>
+  </si>
+  <si>
+    <t>To ask for, to order</t>
+  </si>
+  <si>
+    <t>To owe, should, must</t>
+  </si>
+  <si>
+    <t>To paint</t>
+  </si>
+  <si>
+    <t>To pay</t>
+  </si>
+  <si>
+    <t>To play</t>
+  </si>
+  <si>
+    <t>To promise</t>
+  </si>
+  <si>
+    <t>To pursue</t>
+  </si>
+  <si>
+    <t>To put</t>
+  </si>
+  <si>
+    <t>To put in, to place</t>
+  </si>
+  <si>
+    <t>To put to bed</t>
+  </si>
+  <si>
+    <t>To read</t>
+  </si>
+  <si>
+    <t>To receive</t>
+  </si>
+  <si>
+    <t>To remember</t>
+  </si>
+  <si>
+    <t>To return</t>
+  </si>
+  <si>
+    <t>To run</t>
+  </si>
+  <si>
+    <t>To say, to tell</t>
+  </si>
+  <si>
+    <t>To see, to watch</t>
+  </si>
+  <si>
+    <t>To seem</t>
+  </si>
+  <si>
+    <t>To sell</t>
+  </si>
+  <si>
+    <t>To share</t>
+  </si>
+  <si>
+    <t>To sing</t>
+  </si>
+  <si>
+    <t>To sit</t>
+  </si>
+  <si>
+    <t>To sleep</t>
+  </si>
+  <si>
+    <t>To speak</t>
+  </si>
+  <si>
+    <t>To study</t>
+  </si>
+  <si>
+    <t>To take</t>
+  </si>
+  <si>
+    <t>To take, to carry, to wear</t>
+  </si>
+  <si>
+    <t>To teach</t>
+  </si>
+  <si>
+    <t>To think</t>
+  </si>
+  <si>
+    <t>To touch</t>
+  </si>
+  <si>
+    <t>To translate</t>
+  </si>
+  <si>
+    <t>To travel</t>
+  </si>
+  <si>
+    <t>To try</t>
+  </si>
+  <si>
+    <t>To understand</t>
+  </si>
+  <si>
+    <t>To use</t>
+  </si>
+  <si>
+    <t>To hope, to expect, to wait</t>
+  </si>
+  <si>
+    <t>To wake up</t>
+  </si>
+  <si>
+    <t>To walk, to ride, to go</t>
+  </si>
+  <si>
+    <t>To want</t>
+  </si>
+  <si>
+    <t>To win, to earn</t>
+  </si>
+  <si>
+    <t>To work</t>
+  </si>
+  <si>
+    <t>To write</t>
+  </si>
+  <si>
+    <t>To walk</t>
+  </si>
+  <si>
+    <t>To become, to turn into</t>
+  </si>
+  <si>
+    <t>To wish</t>
+  </si>
+  <si>
+    <t>To cry</t>
+  </si>
+  <si>
+    <t>To ride</t>
+  </si>
+  <si>
+    <t>To leave, to put, to abandon, to let</t>
+  </si>
+  <si>
+    <t>To fall</t>
+  </si>
+  <si>
+    <t>To miss</t>
+  </si>
+  <si>
+    <t>To melt</t>
+  </si>
+  <si>
+    <t>To clean</t>
+  </si>
+  <si>
+    <t>To achieve, to obey</t>
+  </si>
+  <si>
+    <t>To reach, to catch, to achieve</t>
+  </si>
+  <si>
+    <t>To be left, to remain, to stay</t>
+  </si>
+  <si>
+    <t>To fight (for)</t>
+  </si>
+  <si>
+    <t>To try, to taste</t>
+  </si>
+  <si>
+    <t>To send</t>
+  </si>
+  <si>
+    <t>To cut</t>
+  </si>
+  <si>
+    <t>To laugh</t>
+  </si>
+  <si>
+    <t>To smile</t>
+  </si>
+  <si>
+    <t>To show, to display</t>
+  </si>
+  <si>
+    <t>To rain</t>
+  </si>
+  <si>
+    <t>To throw, to pour (in a certain location)</t>
+  </si>
+  <si>
+    <t>To take care of, to care for</t>
+  </si>
+  <si>
+    <t>To fix, to repair</t>
+  </si>
+  <si>
+    <t>To love (+sb)</t>
+  </si>
+  <si>
+    <t>To fly</t>
+  </si>
+  <si>
+    <t>To introduce, to show</t>
+  </si>
+  <si>
+    <t>To pass</t>
+  </si>
+  <si>
+    <t>To prefer</t>
+  </si>
+  <si>
+    <t>To start (more formal)</t>
+  </si>
+  <si>
+    <t>To annoy</t>
+  </si>
+  <si>
+    <t>To support</t>
+  </si>
+  <si>
+    <t>To rest, to nap</t>
+  </si>
+  <si>
+    <t>To calm</t>
+  </si>
+  <si>
+    <t>To joke</t>
+  </si>
+  <si>
+    <t>To hate</t>
+  </si>
+  <si>
+    <t>To wash</t>
+  </si>
+  <si>
+    <t>To contain, to hold back</t>
+  </si>
+  <si>
+    <t>To attack</t>
+  </si>
+  <si>
+    <t>To defend</t>
+  </si>
+  <si>
+    <t>To kick</t>
+  </si>
+  <si>
+    <t>To analyze</t>
+  </si>
+  <si>
+    <t>To question, to doubt</t>
+  </si>
+  <si>
+    <t>To cook</t>
+  </si>
+  <si>
+    <t>To describe</t>
+  </si>
+  <si>
+    <t>To order, to command</t>
+  </si>
+  <si>
+    <t>To increase</t>
+  </si>
+  <si>
+    <t>To decrease, to reduce</t>
+  </si>
+  <si>
+    <t>To brush</t>
+  </si>
+  <si>
+    <t>To tie, to draw</t>
+  </si>
+  <si>
+    <t>To clear</t>
+  </si>
+  <si>
+    <t>To face</t>
+  </si>
+  <si>
+    <t>To mark, to score</t>
+  </si>
+  <si>
+    <t>To notice</t>
+  </si>
+  <si>
+    <t>To thrash, to destroy (by scoring goals)</t>
+  </si>
+  <si>
+    <t>To send off, to throw out</t>
+  </si>
+  <si>
+    <t>To caution, to book</t>
+  </si>
+  <si>
+    <t>To dribble</t>
+  </si>
+  <si>
+    <t>To haggle, to dribble past</t>
+  </si>
+  <si>
+    <t>To head, to nod off</t>
+  </si>
+  <si>
+    <t>To break</t>
+  </si>
+  <si>
+    <t>To take advantage of</t>
+  </si>
+  <si>
+    <t>To referee</t>
+  </si>
+  <si>
+    <t>To heat, to warm up</t>
+  </si>
+  <si>
+    <t>To defeat</t>
+  </si>
+  <si>
+    <t>To dispute, to play (+match)</t>
+  </si>
+  <si>
+    <t>To remove, to get rid of</t>
+  </si>
+  <si>
+    <t>To equalize</t>
+  </si>
+  <si>
+    <t>To fight, to compete</t>
+  </si>
+  <si>
+    <t>To recover</t>
+  </si>
+  <si>
+    <t>To sweat</t>
+  </si>
+  <si>
+    <t>To bump into</t>
+  </si>
+  <si>
+    <t>To note down, to score</t>
+  </si>
+  <si>
+    <t>To shoot</t>
+  </si>
+  <si>
+    <t>To throw away / to shoot</t>
+  </si>
+  <si>
+    <t>To refuse, to deny</t>
+  </si>
+  <si>
+    <t>To reject, to turn down</t>
+  </si>
+  <si>
+    <t>To swim</t>
+  </si>
+  <si>
+    <t>To show off</t>
+  </si>
+  <si>
+    <t>To update</t>
+  </si>
+  <si>
+    <t>To hold, to grab</t>
+  </si>
+  <si>
+    <t>To pour, to spill</t>
+  </si>
+  <si>
+    <t>To swear, to vow, to curse</t>
+  </si>
+  <si>
+    <t>To release, to drop, to let go</t>
+  </si>
+  <si>
+    <t>To lick</t>
+  </si>
+  <si>
+    <t>To pet, to caress</t>
+  </si>
+  <si>
+    <t>To tolerate</t>
+  </si>
+  <si>
+    <t>To hang up</t>
+  </si>
+  <si>
+    <t>To charge, to fill</t>
+  </si>
+  <si>
+    <t>To fill</t>
+  </si>
+  <si>
+    <t>To give a shower</t>
+  </si>
+  <si>
+    <t>To give a bath</t>
+  </si>
+  <si>
+    <t>To avoid, to prevent</t>
+  </si>
+  <si>
+    <t>To survive</t>
+  </si>
+  <si>
+    <t>To choose, to pick</t>
+  </si>
+  <si>
+    <t>To bet</t>
+  </si>
+  <si>
+    <t>To remove, to take off</t>
+  </si>
+  <si>
+    <t>To attend</t>
+  </si>
+  <si>
+    <t>To plan</t>
+  </si>
+  <si>
+    <t>To enjoy</t>
+  </si>
+  <si>
+    <t>To shave</t>
+  </si>
+  <si>
+    <t>To come up with</t>
+  </si>
+  <si>
+    <t>To make sb get tired / sick of</t>
+  </si>
+  <si>
+    <t>To throw (projectile), to throw up</t>
+  </si>
+  <si>
+    <t>To mean</t>
+  </si>
+  <si>
+    <t>To check</t>
+  </si>
+  <si>
+    <t>To request, to ask for</t>
+  </si>
+  <si>
+    <t>To hide</t>
+  </si>
+  <si>
+    <t>To blame</t>
+  </si>
+  <si>
+    <t>To shout, to yell, to scream</t>
+  </si>
+  <si>
+    <t>To turn on, to light</t>
+  </si>
+  <si>
+    <t>To turn off</t>
+  </si>
+  <si>
+    <t>To suppose</t>
+  </si>
+  <si>
+    <t>To guess, to predict</t>
+  </si>
+  <si>
+    <t>To move house</t>
+  </si>
+  <si>
+    <t>To discover, to find out</t>
+  </si>
+  <si>
+    <t>To add</t>
+  </si>
+  <si>
+    <t>To highlight, to emphasize</t>
+  </si>
+  <si>
+    <t>To tire, to annoy</t>
+  </si>
+  <si>
+    <t>To yawn</t>
+  </si>
+  <si>
+    <t>To stop</t>
+  </si>
+  <si>
+    <t>To get used to</t>
+  </si>
+  <si>
+    <t>To kill</t>
+  </si>
+  <si>
+    <t>To end, to finish, to use up, Just</t>
+  </si>
+  <si>
+    <t>To dream</t>
+  </si>
+  <si>
+    <t>To imagine</t>
+  </si>
+  <si>
+    <t>To figure</t>
+  </si>
+  <si>
+    <t>To solve</t>
+  </si>
+  <si>
+    <t>To join</t>
+  </si>
+  <si>
+    <t>To switch off, to space out</t>
+  </si>
+  <si>
+    <t>To lie</t>
+  </si>
+  <si>
+    <t>To delay</t>
+  </si>
+  <si>
+    <t>To damage</t>
+  </si>
+  <si>
+    <t>To drown</t>
+  </si>
+  <si>
+    <t>To put up with, to support, to handle</t>
+  </si>
+  <si>
+    <t>To handle</t>
+  </si>
+  <si>
+    <t>To move closer</t>
+  </si>
+  <si>
+    <t>To travel around</t>
+  </si>
+  <si>
+    <t>To be enough</t>
+  </si>
+  <si>
+    <t>To care, to be bothered, to matter</t>
+  </si>
+  <si>
+    <t>To spit</t>
+  </si>
+  <si>
+    <t>To depress</t>
+  </si>
+  <si>
+    <t>To make happy</t>
+  </si>
+  <si>
+    <t>To encourage</t>
+  </si>
+  <si>
+    <t>To pretend</t>
+  </si>
+  <si>
+    <t>To tie up</t>
+  </si>
+  <si>
+    <t>To kiss</t>
+  </si>
+  <si>
+    <t>To cure, to heal</t>
+  </si>
+  <si>
+    <t>To get sick</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -1104,1269 +1854,2023 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A251"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>249</v>
       </c>
     </row>
